--- a/media/rsvfiles/filtersheet.xlsx
+++ b/media/rsvfiles/filtersheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>userid</t>
   </si>
@@ -82,79 +82,7 @@
     <t>Response ID</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>101</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>201</t>
   </si>
   <si>
     <t>8/30/2016</t>
@@ -549,168 +477,24 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Application Access Frequency!$A$2:$A$26</c:f>
+              <c:f>Application Access Frequency!$A$2:$A$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>011</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>013</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>014</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>015</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>017</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>018</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>019</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>020</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>071</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>654</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Application Access Frequency!$B$2:$B$26</c:f>
+              <c:f>Application Access Frequency!$B$2:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7114,8 +6898,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -7529,7 +7313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7548,199 +7332,7 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7809,7 +7401,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -7859,7 +7451,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7909,7 +7501,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7959,7 +7551,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -8009,7 +7601,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8059,7 +7651,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8109,7 +7701,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8159,7 +7751,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -8209,7 +7801,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8259,7 +7851,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -8309,7 +7901,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -8359,7 +7951,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -8409,7 +8001,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -8459,7 +8051,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8509,7 +8101,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -8559,7 +8151,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8609,7 +8201,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8659,7 +8251,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8709,7 +8301,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8759,7 +8351,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8809,7 +8401,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8859,7 +8451,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8909,7 +8501,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8959,7 +8551,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -9009,7 +8601,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9059,7 +8651,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9109,7 +8701,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -9159,7 +8751,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -9209,7 +8801,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9259,7 +8851,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -9309,7 +8901,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9359,7 +8951,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -9409,7 +9001,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9459,7 +9051,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9509,7 +9101,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -9559,7 +9151,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -9609,7 +9201,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -9659,7 +9251,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -9709,7 +9301,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9759,7 +9351,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -9809,7 +9401,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9859,7 +9451,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9909,7 +9501,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9959,7 +9551,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10009,7 +9601,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -10059,7 +9651,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10109,7 +9701,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10159,7 +9751,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10209,7 +9801,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10259,7 +9851,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10309,7 +9901,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -10359,7 +9951,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -10409,7 +10001,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10459,7 +10051,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -10509,7 +10101,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -10559,7 +10151,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -10609,7 +10201,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -10659,7 +10251,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -10709,7 +10301,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -10759,7 +10351,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -10809,7 +10401,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -10859,7 +10451,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10909,7 +10501,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -10959,7 +10551,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -11009,7 +10601,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -11059,7 +10651,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -11109,7 +10701,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -11159,7 +10751,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -11209,7 +10801,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -11259,7 +10851,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -11309,7 +10901,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -11359,7 +10951,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -11409,7 +11001,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -11459,7 +11051,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -11509,7 +11101,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -11559,7 +11151,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -11609,7 +11201,7 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -11659,7 +11251,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -11709,7 +11301,7 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -11759,7 +11351,7 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -11809,7 +11401,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -11859,7 +11451,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -11909,7 +11501,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -11959,7 +11551,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -12009,7 +11601,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -12059,7 +11651,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -12109,7 +11701,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -12159,7 +11751,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -12209,7 +11801,7 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -12259,7 +11851,7 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -12309,7 +11901,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -12359,7 +11951,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -12409,7 +12001,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -12459,7 +12051,7 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -12509,7 +12101,7 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12559,7 +12151,7 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12609,7 +12201,7 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12659,7 +12251,7 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12709,7 +12301,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12781,7 +12373,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -12789,7 +12381,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12797,7 +12389,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12805,7 +12397,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12813,7 +12405,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12821,7 +12413,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12829,7 +12421,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12837,7 +12429,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12845,7 +12437,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12853,7 +12445,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12861,7 +12453,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12869,7 +12461,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12877,7 +12469,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12885,7 +12477,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12893,7 +12485,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12901,7 +12493,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12909,7 +12501,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12917,7 +12509,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12925,7 +12517,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12933,7 +12525,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12941,7 +12533,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12949,7 +12541,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12957,7 +12549,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -12965,7 +12557,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -12973,7 +12565,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12981,7 +12573,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12989,7 +12581,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -12997,7 +12589,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -13005,7 +12597,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -13013,7 +12605,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -13021,7 +12613,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -13029,7 +12621,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -13037,7 +12629,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -13045,7 +12637,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -13053,7 +12645,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -13061,7 +12653,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -13069,7 +12661,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -13077,7 +12669,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -13085,7 +12677,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -13093,7 +12685,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -13101,7 +12693,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -13109,7 +12701,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -13117,7 +12709,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -13125,7 +12717,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -13133,7 +12725,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -13141,7 +12733,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -13149,7 +12741,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -13157,7 +12749,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -13165,7 +12757,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -13173,7 +12765,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -13181,7 +12773,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -13189,7 +12781,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -13197,7 +12789,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -13205,7 +12797,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -13213,7 +12805,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -13221,7 +12813,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -13229,7 +12821,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -13237,7 +12829,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -13245,7 +12837,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -13253,7 +12845,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -13261,7 +12853,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -13269,7 +12861,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -13277,7 +12869,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -13285,7 +12877,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -13293,7 +12885,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -13301,7 +12893,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -13309,7 +12901,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -13317,7 +12909,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -13325,7 +12917,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -13333,7 +12925,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -13341,7 +12933,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -13371,7 +12963,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -13379,7 +12971,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -13387,7 +12979,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>6</v>
